--- a/data/Subset 1/MOLLY MCNINCH pt 1.xlsx
+++ b/data/Subset 1/MOLLY MCNINCH pt 1.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
